--- a/EMC_Y.xlsx
+++ b/EMC_Y.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sts69\Desktop\Daily Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sts69\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3736EC1-8564-4358-AA8F-D792773BF04D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="19440" windowHeight="7500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
-    <sheet name="EMC001Y" sheetId="10" r:id="rId2"/>
-    <sheet name="EMC002Y" sheetId="11" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Main!$A$1:$AR$49</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Main!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <customWorkbookViews>
     <customWorkbookView name="sts69 - Personal View" guid="{97EEC5F9-547B-4F16-B8E3-7D6BCB47EBF7}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1362" windowHeight="538" activeSheetId="1"/>
   </customWorkbookViews>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="467">
   <si>
     <t>LOCATION</t>
   </si>
@@ -136,9 +135,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>JDE</t>
   </si>
   <si>
     <t>Planning Engineer</t>
@@ -1063,9 +1059,6 @@
     <t>10.0.0.198</t>
   </si>
   <si>
-    <t>Yibal</t>
-  </si>
-  <si>
     <t>STSINS006Y</t>
   </si>
   <si>
@@ -1180,9 +1173,6 @@
     <t>EliteDesk 800 G1 TWR</t>
   </si>
   <si>
-    <t>HRMS</t>
-  </si>
-  <si>
     <t>emc.yib.mc1@stsoman.com</t>
   </si>
   <si>
@@ -1289,233 +1279,6 @@
   </si>
   <si>
     <t>HDD</t>
-  </si>
-  <si>
-    <t>SPECIAL TECHNICAL SERVICES L.L.C.</t>
-  </si>
-  <si>
-    <t>PREVENTIVE SYSTEM MAINTENANCE  CHECKLIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> INVENTORY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Computer Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Maitenance Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Laptop/Desktop</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IT HelpDesk Ticket</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> User ID &amp; Domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Business Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Custodian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IPV4 Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Designation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Make/Brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Email Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Contact Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serial Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Processor</t>
-  </si>
-  <si>
-    <t>Bit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Product Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hard Disk Size</t>
-  </si>
-  <si>
-    <t>Memory</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Monitor (CRT/LED/LCD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Operating System</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> Other Devices, if any 
- connected </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Deskjet Printer/ 
- USB Modem/ Scanner etc)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> Web Applications</t>
-  </si>
-  <si>
-    <t>AXPERT</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>OTHER</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MS Office</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Primavera</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Adobe Reader</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Adobe Acrobat</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> WinRAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nitro Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CAD Viewer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AutoCad</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Navis Freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MS Projects</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> TeamViewer</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Others</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Antivirus</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PREVENTIVE MAINTENANCE - CHECKPOINTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> System Cleaned</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Disk Check - CHKDSK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Key Board &amp; Mouse Condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Internal Compenents Fix Properly</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SFC Scan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Network Printer Connectivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CMOS Battery Condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Virus Scan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Network Drives/Sharing Folders</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cold Boot</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Remove Temp Files</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Create System Restore Point</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> User Rights </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Web Browser Settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cable Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Unauthorized Software Removal</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PST File - Create new </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Antivirus Defention Update</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> System Time/Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Display/Montior Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Device Manager Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Windows Update</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hard Disk Usage Percentage (%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FINDINGS &amp; ACTION TAKEN</t>
-  </si>
-  <si>
-    <t>Done By</t>
-  </si>
-  <si>
-    <t>Witnessed By</t>
-  </si>
-  <si>
-    <t>Desktop</t>
   </si>
   <si>
     <t>emc001y/STSEMC</t>
@@ -1674,8 +1437,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1700,63 +1463,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1806,7 +1512,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1840,685 +1546,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2585,255 +1617,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2972,6 +1755,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3007,6 +1807,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3182,11 +1999,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
@@ -3236,7 +2053,7 @@
   <sheetData>
     <row r="1" spans="1:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -3248,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -3290,19 +2107,19 @@
         <v>13</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>19</v>
@@ -3311,10 +2128,10 @@
         <v>20</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AB1" s="21" t="s">
         <v>2</v>
@@ -3326,34 +2143,34 @@
         <v>1</v>
       </c>
       <c r="AE1" s="21" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AF1" s="21" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AG1" s="19" t="s">
         <v>16</v>
       </c>
       <c r="AH1" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="AI1" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="AJ1" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="AK1" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="AI1" s="19" t="s">
+      <c r="AL1" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="AJ1" s="19" t="s">
+      <c r="AM1" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="AK1" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="AL1" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="AM1" s="19" t="s">
-        <v>397</v>
-      </c>
       <c r="AN1" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AO1" s="20" t="s">
         <v>21</v>
@@ -3365,7 +2182,7 @@
         <v>23</v>
       </c>
       <c r="AR1" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3373,47 +2190,47 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>490</v>
+        <v>416</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>32</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>34</v>
@@ -3423,7 +2240,7 @@
       </c>
       <c r="S2" s="5"/>
       <c r="T2" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="U2" s="5">
         <v>64</v>
@@ -3441,22 +2258,22 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF2" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH2" s="5"/>
       <c r="AI2" s="5"/>
@@ -3484,59 +2301,59 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>491</v>
+        <v>417</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="K3" s="4">
         <v>95853246</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S3" s="5"/>
       <c r="T3" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="U3" s="5">
         <v>64</v>
@@ -3552,19 +2369,19 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
       <c r="AB3" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF3" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG3" s="5"/>
       <c r="AH3" s="5"/>
@@ -3585,63 +2402,63 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>492</v>
+        <v>418</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>32</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N4" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="P4" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>135</v>
-      </c>
       <c r="Q4" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S4" s="5"/>
       <c r="T4" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="U4" s="5">
         <v>32</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="W4" s="5" t="s">
         <v>18</v>
@@ -3651,22 +2468,22 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG4" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="AG4" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
@@ -3686,37 +2503,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="K5" s="4">
         <v>95753776</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>27</v>
@@ -3725,10 +2542,10 @@
         <v>33</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>34</v>
@@ -3738,7 +2555,7 @@
       </c>
       <c r="S5" s="5"/>
       <c r="T5" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="U5" s="5">
         <v>32</v>
@@ -3756,22 +2573,22 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
       <c r="AB5" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF5" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG5" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
@@ -3799,59 +2616,59 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>494</v>
+        <v>420</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K6" s="4">
         <v>96923457</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N6" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="P6" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="O6" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>360</v>
-      </c>
       <c r="Q6" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S6" s="5"/>
       <c r="T6" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="U6" s="5">
         <v>64</v>
@@ -3863,28 +2680,28 @@
         <v>18</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF6" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
@@ -3904,65 +2721,65 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="J7" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K7" s="4">
         <v>95629438</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="P7" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="O7" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="Q7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S7" s="5"/>
       <c r="T7" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="U7" s="5">
         <v>32</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="W7" s="5" t="s">
         <v>18</v>
@@ -3974,22 +2791,22 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF7" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG7" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
@@ -4017,49 +2834,49 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>496</v>
+        <v>422</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>537</v>
+        <v>463</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K8" s="4">
         <v>95753846</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="O8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="P8" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>34</v>
@@ -4069,7 +2886,7 @@
       </c>
       <c r="S8" s="5"/>
       <c r="T8" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="U8" s="5">
         <v>32</v>
@@ -4087,22 +2904,22 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF8" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
@@ -4130,49 +2947,49 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="J9" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K9" s="4">
         <v>93014765</v>
       </c>
       <c r="L9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="N9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N9" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="O9" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q9" s="5" t="s">
         <v>34</v>
@@ -4182,7 +2999,7 @@
       </c>
       <c r="S9" s="5"/>
       <c r="T9" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="U9" s="5">
         <v>32</v>
@@ -4200,22 +3017,22 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF9" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH9" s="5"/>
       <c r="AI9" s="5"/>
@@ -4243,49 +3060,49 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>498</v>
+        <v>424</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I10" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="K10" s="4">
         <v>95367184</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O10" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="P10" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>34</v>
@@ -4295,7 +3112,7 @@
       </c>
       <c r="S10" s="5"/>
       <c r="T10" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="U10" s="5">
         <v>64</v>
@@ -4307,7 +3124,7 @@
         <v>18</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="Y10" s="5" t="s">
         <v>25</v>
@@ -4315,22 +3132,22 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD10" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE10" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF10" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH10" s="5"/>
       <c r="AI10" s="5"/>
@@ -4358,90 +3175,90 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>499</v>
+        <v>425</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>26</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="P11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="O11" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="Q11" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S11" s="5"/>
       <c r="T11" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="U11" s="5">
         <v>32</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="W11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD11" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG11" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="AG11" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
@@ -4461,65 +3278,65 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="K12" s="4">
         <v>95456923</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q12" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="O12" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="R12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S12" s="5"/>
       <c r="T12" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="U12" s="5">
         <v>32</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="W12" s="5" t="s">
         <v>18</v>
@@ -4531,22 +3348,22 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD12" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF12" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG12" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="AG12" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
@@ -4574,37 +3391,37 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="K13" s="4">
         <v>95753775</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>27</v>
@@ -4613,7 +3430,7 @@
         <v>28</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P13" s="5" t="s">
         <v>31</v>
@@ -4626,7 +3443,7 @@
       </c>
       <c r="S13" s="5"/>
       <c r="T13" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="U13" s="5">
         <v>32</v>
@@ -4644,22 +3461,22 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD13" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF13" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG13" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
@@ -4687,59 +3504,59 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>502</v>
+        <v>428</v>
       </c>
       <c r="H14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="K14" s="4">
         <v>95753781</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N14" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="P14" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="O14" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>360</v>
-      </c>
       <c r="Q14" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S14" s="5"/>
       <c r="T14" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="U14" s="5">
         <v>64</v>
@@ -4751,28 +3568,28 @@
         <v>18</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AC14" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD14" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE14" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF14" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG14" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
@@ -4792,59 +3609,59 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>503</v>
+        <v>429</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K15" s="4">
         <v>96205231</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N15" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="P15" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="O15" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>360</v>
-      </c>
       <c r="Q15" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S15" s="5"/>
       <c r="T15" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="U15" s="5">
         <v>64</v>
@@ -4856,28 +3673,28 @@
         <v>18</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AC15" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD15" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE15" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF15" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG15" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH15" s="5"/>
       <c r="AI15" s="5"/>
@@ -4897,47 +3714,47 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>187</v>
-      </c>
       <c r="I16" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>26</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N16" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="O16" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q16" s="5" t="s">
         <v>34</v>
@@ -4947,7 +3764,7 @@
       </c>
       <c r="S16" s="5"/>
       <c r="T16" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="U16" s="5">
         <v>32</v>
@@ -4965,22 +3782,22 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
       <c r="AB16" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AC16" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD16" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF16" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG16" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="AG16" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="AH16" s="5"/>
       <c r="AI16" s="5"/>
@@ -5008,63 +3825,63 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>505</v>
+        <v>431</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>26</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="P17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="O17" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="Q17" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S17" s="5"/>
       <c r="T17" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="U17" s="5">
         <v>32</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="W17" s="5" t="s">
         <v>18</v>
@@ -5076,22 +3893,22 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC17" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD17" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE17" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF17" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AG17" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
@@ -5119,65 +3936,65 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="K18" s="17">
         <v>95168064</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="N18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q18" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="O18" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="R18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="U18" s="2">
         <v>32</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="W18" s="2" t="s">
         <v>18</v>
@@ -5189,22 +4006,22 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AC18" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD18" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE18" s="17" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF18" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
@@ -5219,10 +4036,10 @@
         <v>27</v>
       </c>
       <c r="AP18" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AQ18" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AR18" s="2"/>
     </row>
@@ -5232,37 +4049,37 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="K19" s="4">
         <v>98527065</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>27</v>
@@ -5271,10 +4088,10 @@
         <v>33</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q19" s="5" t="s">
         <v>34</v>
@@ -5284,7 +4101,7 @@
       </c>
       <c r="S19" s="5"/>
       <c r="T19" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="U19" s="5">
         <v>32</v>
@@ -5302,22 +4119,22 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AC19" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD19" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE19" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF19" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG19" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
@@ -5345,65 +4162,65 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="K20" s="4">
         <v>95753775</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O20" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="P20" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="P20" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="Q20" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S20" s="5"/>
       <c r="T20" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="U20" s="5">
         <v>32</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="W20" s="5" t="s">
         <v>18</v>
@@ -5415,22 +4232,22 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AC20" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD20" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE20" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF20" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG20" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
@@ -5445,10 +4262,10 @@
         <v>27</v>
       </c>
       <c r="AP20" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="AQ20" s="5" t="s">
         <v>317</v>
-      </c>
-      <c r="AQ20" s="5" t="s">
-        <v>318</v>
       </c>
       <c r="AR20" s="5"/>
     </row>
@@ -5458,65 +4275,65 @@
         <v>20</v>
       </c>
       <c r="B21" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="K21" s="17">
         <v>95853246</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="N21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q21" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="O21" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="R21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="U21" s="2">
         <v>32</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>18</v>
@@ -5528,22 +4345,22 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AC21" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD21" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE21" s="17" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF21" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG21" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
@@ -5571,71 +4388,71 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="K22" s="4">
         <v>94268354</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M22" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N22" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q22" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="O22" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="R22" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S22" s="5"/>
       <c r="T22" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="U22" s="5">
         <v>32</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="W22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="Y22" s="5" t="s">
         <v>25</v>
@@ -5643,22 +4460,22 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
       <c r="AB22" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AC22" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD22" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE22" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AF22" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG22" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="AG22" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="AH22" s="5"/>
       <c r="AI22" s="5"/>
@@ -5686,49 +4503,49 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="H23" s="5" t="s">
+      <c r="I23" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="K23" s="4">
         <v>96070924</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N23" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="O23" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q23" s="5" t="s">
         <v>34</v>
@@ -5738,7 +4555,7 @@
       </c>
       <c r="S23" s="5"/>
       <c r="T23" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="U23" s="5">
         <v>32</v>
@@ -5756,22 +4573,22 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AC23" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD23" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE23" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF23" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG23" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
@@ -5786,10 +4603,10 @@
         <v>27</v>
       </c>
       <c r="AP23" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AQ23" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AR23" s="5"/>
     </row>
@@ -5799,37 +4616,37 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="H24" s="5" t="s">
+      <c r="I24" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="J24" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="K24" s="4">
         <v>93598405</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M24" s="5" t="s">
         <v>27</v>
@@ -5838,7 +4655,7 @@
         <v>28</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P24" s="5" t="s">
         <v>31</v>
@@ -5851,7 +4668,7 @@
       </c>
       <c r="S24" s="5"/>
       <c r="T24" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="U24" s="5">
         <v>64</v>
@@ -5869,22 +4686,22 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AC24" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD24" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE24" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF24" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG24" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
@@ -5912,63 +4729,63 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>266</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M25" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q25" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="O25" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q25" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="R25" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S25" s="5"/>
       <c r="T25" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="U25" s="5">
         <v>32</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="W25" s="5" t="s">
         <v>18</v>
@@ -5980,22 +4797,22 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AC25" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD25" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE25" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF25" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG25" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
@@ -6023,65 +4840,65 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>262</v>
       </c>
       <c r="K26" s="4">
         <v>96790531</v>
       </c>
       <c r="L26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M26" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="N26" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P26" s="5" t="s">
         <v>25</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R26" s="5" t="s">
         <v>30</v>
       </c>
       <c r="S26" s="5"/>
       <c r="T26" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="U26" s="5">
         <v>32</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="W26" s="5" t="s">
         <v>18</v>
@@ -6093,22 +4910,22 @@
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
       <c r="AB26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AC26" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD26" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE26" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF26" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG26" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
@@ -6136,65 +4953,65 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>527</v>
+        <v>453</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K27" s="4">
         <v>95035586</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R27" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="R27" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="S27" s="5"/>
       <c r="T27" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="U27" s="5">
         <v>32</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="W27" s="5" t="s">
         <v>18</v>
@@ -6204,22 +5021,22 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AC27" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD27" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE27" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF27" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG27" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
@@ -6239,28 +5056,28 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="H28" s="5" t="s">
+      <c r="I28" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>26</v>
@@ -6269,35 +5086,35 @@
         <v>95349012</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q28" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="O28" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q28" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="R28" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S28" s="5"/>
       <c r="T28" s="5" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="U28" s="5">
         <v>32</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="W28" s="5" t="s">
         <v>18</v>
@@ -6309,22 +5126,22 @@
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
       <c r="AB28" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AC28" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD28" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE28" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF28" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
@@ -6339,10 +5156,10 @@
         <v>27</v>
       </c>
       <c r="AP28" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AQ28" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AR28" s="5"/>
     </row>
@@ -6352,59 +5169,59 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>525</v>
+        <v>451</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="I29" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>311</v>
       </c>
       <c r="K29" s="4">
         <v>97185478</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M29" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S29" s="5"/>
       <c r="T29" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="U29" s="5">
         <v>64</v>
@@ -6422,22 +5239,22 @@
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AC29" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD29" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE29" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF29" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG29" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
@@ -6465,59 +5282,59 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>524</v>
+        <v>450</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I30" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="K30" s="4">
         <v>95324996</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M30" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S30" s="5"/>
       <c r="T30" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="U30" s="5">
         <v>64</v>
@@ -6535,22 +5352,22 @@
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AB30" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AC30" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD30" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE30" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF30" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG30" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
@@ -6578,57 +5395,57 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>523</v>
+        <v>449</v>
       </c>
       <c r="H31" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="J31" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="K31" s="4"/>
       <c r="L31" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M31" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S31" s="5"/>
       <c r="T31" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="U31" s="5">
         <v>64</v>
@@ -6646,22 +5463,22 @@
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
       <c r="AB31" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AC31" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD31" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE31" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF31" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG31" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
@@ -6689,59 +5506,59 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>522</v>
+        <v>448</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K32" s="4">
         <v>95754272</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S32" s="5"/>
       <c r="T32" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="U32" s="5">
         <v>64</v>
@@ -6759,22 +5576,22 @@
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
       <c r="AB32" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AC32" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD32" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE32" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF32" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG32" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH32" s="5"/>
       <c r="AI32" s="5"/>
@@ -6783,7 +5600,7 @@
       <c r="AL32" s="5"/>
       <c r="AM32" s="5"/>
       <c r="AN32" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AO32" s="5" t="s">
         <v>25</v>
@@ -6802,59 +5619,59 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>521</v>
+        <v>447</v>
       </c>
       <c r="H33" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="J33" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="K33" s="4">
         <v>96794152</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M33" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S33" s="5"/>
       <c r="T33" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="U33" s="5">
         <v>64</v>
@@ -6872,22 +5689,22 @@
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
       <c r="AB33" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AC33" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD33" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF33" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG33" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH33" s="5"/>
       <c r="AI33" s="5"/>
@@ -6915,59 +5732,59 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>520</v>
+        <v>446</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K34" s="4">
         <v>96935278</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M34" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S34" s="5"/>
       <c r="T34" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="U34" s="5">
         <v>64</v>
@@ -6985,22 +5802,22 @@
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
       <c r="AB34" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AC34" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD34" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF34" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG34" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH34" s="5"/>
       <c r="AI34" s="5"/>
@@ -7028,59 +5845,59 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>519</v>
+        <v>445</v>
       </c>
       <c r="H35" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="K35" s="4">
         <v>97303919</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S35" s="5"/>
       <c r="T35" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="U35" s="5">
         <v>64</v>
@@ -7098,22 +5915,22 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
       <c r="AB35" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AC35" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD35" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE35" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF35" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG35" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH35" s="5"/>
       <c r="AI35" s="5"/>
@@ -7141,59 +5958,59 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>518</v>
+        <v>444</v>
       </c>
       <c r="H36" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="K36" s="4">
         <v>95973786</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M36" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="O36" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="P36" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="P36" s="5" t="s">
-        <v>338</v>
-      </c>
       <c r="Q36" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R36" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S36" s="5"/>
       <c r="T36" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="U36" s="5">
         <v>64</v>
@@ -7211,22 +6028,22 @@
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
       <c r="AB36" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AC36" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD36" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE36" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF36" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG36" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
@@ -7241,10 +6058,10 @@
         <v>27</v>
       </c>
       <c r="AP36" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="AQ36" s="5" t="s">
         <v>315</v>
-      </c>
-      <c r="AQ36" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="AR36" s="5"/>
     </row>
@@ -7254,57 +6071,57 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>517</v>
+        <v>443</v>
       </c>
       <c r="H37" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="J37" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M37" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N37" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="P37" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="O37" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="P37" s="5" t="s">
-        <v>360</v>
-      </c>
       <c r="Q37" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="R37" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S37" s="5"/>
       <c r="T37" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="U37" s="5">
         <v>64</v>
@@ -7316,28 +6133,28 @@
         <v>18</v>
       </c>
       <c r="X37" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
       <c r="AB37" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AC37" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD37" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE37" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF37" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AG37" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AH37" s="5"/>
       <c r="AI37" s="5"/>
@@ -7357,59 +6174,59 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>516</v>
+        <v>442</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K38" s="4">
         <v>96794152</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M38" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N38" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="P38" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="O38" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>360</v>
-      </c>
       <c r="Q38" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="R38" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S38" s="5"/>
       <c r="T38" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="U38" s="5">
         <v>64</v>
@@ -7421,28 +6238,28 @@
         <v>18</v>
       </c>
       <c r="X38" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
       <c r="AA38" s="5"/>
       <c r="AB38" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AC38" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD38" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE38" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF38" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG38" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH38" s="5"/>
       <c r="AI38" s="5"/>
@@ -7462,59 +6279,59 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>515</v>
+        <v>441</v>
       </c>
       <c r="H39" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I39" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I39" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="J39" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K39" s="4">
         <v>95340012</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M39" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N39" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="P39" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="O39" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="P39" s="5" t="s">
-        <v>360</v>
-      </c>
       <c r="Q39" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S39" s="5"/>
       <c r="T39" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="U39" s="5">
         <v>64</v>
@@ -7526,28 +6343,28 @@
         <v>18</v>
       </c>
       <c r="X39" s="5" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
       <c r="AA39" s="5"/>
       <c r="AB39" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AC39" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF39" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG39" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH39" s="5"/>
       <c r="AI39" s="5"/>
@@ -7567,59 +6384,59 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>514</v>
+        <v>440</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I40" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="J40" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="K40" s="4">
         <v>95847126</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M40" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N40" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="P40" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="O40" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="P40" s="5" t="s">
-        <v>360</v>
-      </c>
       <c r="Q40" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S40" s="5"/>
       <c r="T40" s="5" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="U40" s="5">
         <v>64</v>
@@ -7631,28 +6448,28 @@
         <v>18</v>
       </c>
       <c r="X40" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
       <c r="AB40" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AC40" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF40" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG40" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH40" s="5"/>
       <c r="AI40" s="5"/>
@@ -7662,16 +6479,16 @@
       <c r="AM40" s="5"/>
       <c r="AN40" s="5"/>
       <c r="AO40" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="AP40" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="AP40" s="11" t="s">
-        <v>292</v>
-      </c>
       <c r="AQ40" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="AR40" s="11" t="s">
         <v>319</v>
-      </c>
-      <c r="AR40" s="11" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7680,59 +6497,59 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>513</v>
+        <v>439</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K41" s="4">
         <v>97183194</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M41" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N41" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="P41" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="O41" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="P41" s="5" t="s">
-        <v>360</v>
-      </c>
       <c r="Q41" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S41" s="5"/>
       <c r="T41" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="U41" s="5">
         <v>64</v>
@@ -7744,28 +6561,28 @@
         <v>18</v>
       </c>
       <c r="X41" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
       <c r="AB41" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AC41" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF41" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG41" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH41" s="5"/>
       <c r="AI41" s="5"/>
@@ -7785,59 +6602,59 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>512</v>
+        <v>438</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K42" s="4">
         <v>95626032</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M42" s="5" t="s">
         <v>27</v>
       </c>
       <c r="N42" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="P42" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="O42" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="P42" s="5" t="s">
-        <v>360</v>
-      </c>
       <c r="Q42" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="R42" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S42" s="5"/>
       <c r="T42" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="U42" s="5">
         <v>64</v>
@@ -7849,28 +6666,28 @@
         <v>18</v>
       </c>
       <c r="X42" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
       <c r="AB42" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AC42" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD42" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE42" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF42" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG42" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AH42" s="5"/>
       <c r="AI42" s="5"/>
@@ -7890,57 +6707,57 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>512</v>
+        <v>438</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K43" s="4">
         <v>95168064</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="R43" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S43" s="5"/>
       <c r="T43" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="U43" s="5">
         <v>64</v>
@@ -7952,25 +6769,25 @@
         <v>18</v>
       </c>
       <c r="X43" s="5" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
       <c r="AB43" s="4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AC43" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD43" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE43" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF43" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG43" s="5"/>
       <c r="AH43" s="5"/>
@@ -7991,59 +6808,59 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="I44" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="I44" s="7" t="s">
+      <c r="J44" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="K44" s="6">
         <v>95324011</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M44" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N44" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="O44" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="R44" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S44" s="7"/>
       <c r="T44" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="U44" s="7">
         <v>64</v>
@@ -8061,22 +6878,22 @@
       <c r="Z44" s="9"/>
       <c r="AA44" s="9"/>
       <c r="AB44" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AC44" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD44" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE44" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="AF44" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG44" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="AE44" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="AF44" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG44" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="AH44" s="7"/>
       <c r="AI44" s="7"/>
@@ -8104,49 +6921,49 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="I45" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="G45" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="I45" s="7" t="s">
+      <c r="J45" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="K45" s="6">
         <v>94268365</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M45" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N45" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N45" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="O45" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q45" s="7" t="s">
         <v>34</v>
@@ -8156,7 +6973,7 @@
       </c>
       <c r="S45" s="7"/>
       <c r="T45" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="U45" s="7">
         <v>32</v>
@@ -8174,22 +6991,22 @@
       <c r="Z45" s="9"/>
       <c r="AA45" s="9"/>
       <c r="AB45" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AC45" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD45" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AE45" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF45" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG45" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH45" s="7"/>
       <c r="AI45" s="7"/>
@@ -8204,10 +7021,10 @@
         <v>27</v>
       </c>
       <c r="AP45" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AQ45" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AR45" s="7"/>
     </row>
@@ -8217,59 +7034,59 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="J46" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="K46" s="6">
         <v>97185241</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M46" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N46" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="O46" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="R46" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S46" s="7"/>
       <c r="T46" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="U46" s="7">
         <v>32</v>
@@ -8287,22 +7104,22 @@
       <c r="Z46" s="9"/>
       <c r="AA46" s="9"/>
       <c r="AB46" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AC46" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD46" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE46" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="AF46" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG46" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="AE46" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="AF46" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG46" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="AH46" s="7"/>
       <c r="AI46" s="7"/>
@@ -8314,13 +7131,13 @@
         <v>25</v>
       </c>
       <c r="AO46" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AP46" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="AQ46" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="AQ46" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="AR46" s="7"/>
     </row>
@@ -8330,59 +7147,59 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H47" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G47" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="H47" s="7" t="s">
+      <c r="I47" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="I47" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="J47" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K47" s="6">
         <v>99829103</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M47" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N47" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="O47" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="R47" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S47" s="7"/>
       <c r="T47" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="U47" s="3">
         <v>64</v>
@@ -8400,22 +7217,22 @@
       <c r="Z47" s="9"/>
       <c r="AA47" s="9"/>
       <c r="AB47" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AC47" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AE47" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF47" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG47" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH47" s="7"/>
       <c r="AI47" s="7"/>
@@ -8443,28 +7260,28 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>507</v>
+        <v>433</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>26</v>
@@ -8473,16 +7290,16 @@
         <v>96021339</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M48" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N48" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N48" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="O48" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>35</v>
@@ -8495,7 +7312,7 @@
       </c>
       <c r="S48" s="7"/>
       <c r="T48" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="U48" s="7">
         <v>32</v>
@@ -8513,22 +7330,22 @@
       <c r="Z48" s="9"/>
       <c r="AA48" s="9"/>
       <c r="AB48" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AC48" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD48" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AE48" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF48" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG48" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH48" s="7"/>
       <c r="AI48" s="7"/>
@@ -8556,28 +7373,28 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>506</v>
+        <v>432</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>26</v>
@@ -8586,29 +7403,29 @@
         <v>96341328</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M49" s="7" t="s">
         <v>27</v>
       </c>
       <c r="N49" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="O49" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="R49" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S49" s="7"/>
       <c r="T49" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="U49" s="7">
         <v>32</v>
@@ -8624,22 +7441,22 @@
       <c r="Z49" s="9"/>
       <c r="AA49" s="9"/>
       <c r="AB49" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AC49" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD49" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AE49" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AF49" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AG49" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AH49" s="7"/>
       <c r="AI49" s="7"/>
@@ -8673,17 +7490,17 @@
     <cfRule type="duplicateValues" dxfId="0" priority="32"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="J8" r:id="rId1"/>
-    <hyperlink ref="J29" r:id="rId2"/>
-    <hyperlink ref="J30" r:id="rId3"/>
-    <hyperlink ref="J31" r:id="rId4"/>
-    <hyperlink ref="J32" r:id="rId5"/>
-    <hyperlink ref="J33" r:id="rId6"/>
-    <hyperlink ref="J34" r:id="rId7"/>
-    <hyperlink ref="J35" r:id="rId8"/>
-    <hyperlink ref="J42" r:id="rId9"/>
-    <hyperlink ref="J7" r:id="rId10"/>
-    <hyperlink ref="J37" r:id="rId11"/>
+    <hyperlink ref="J8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J29" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J30" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J31" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J32" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J33" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J34" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J35" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J42" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J37" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
@@ -8691,2034 +7508,4 @@
     <ignoredError sqref="A4" formula="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.42578125" style="24" customWidth="1"/>
-    <col min="2" max="9" width="5.140625" style="24" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="24" customWidth="1"/>
-    <col min="11" max="15" width="5.140625" style="24" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" style="24" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="24" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="24"/>
-    <col min="19" max="19" width="1.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="1.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="24"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
-        <v>419</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-    </row>
-    <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
-        <v>420</v>
-      </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-    </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>421</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-    </row>
-    <row r="4" spans="1:24" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>412</v>
-      </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58" t="s">
-        <v>423</v>
-      </c>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="62"/>
-    </row>
-    <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>424</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>489</v>
-      </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="49" t="s">
-        <v>425</v>
-      </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="53"/>
-    </row>
-    <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>426</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>343</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="49" t="s">
-        <v>427</v>
-      </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="63" t="str">
-        <f>VLOOKUP(B4,Main!B2:G49,6,0)</f>
-        <v>emc052y/STSEMC</v>
-      </c>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="64"/>
-    </row>
-    <row r="7" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>428</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="49" t="s">
-        <v>429</v>
-      </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="63" t="str">
-        <f>VLOOKUP(B4,Main!B2:H49,7,0)</f>
-        <v>Prameed</v>
-      </c>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="64"/>
-    </row>
-    <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>430</v>
-      </c>
-      <c r="B8" s="47" t="str">
-        <f>VLOOKUP(B4,Main!B2:F49,5,0)</f>
-        <v>10.0.0.203</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="49" t="s">
-        <v>431</v>
-      </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="63" t="str">
-        <f>VLOOKUP(B4,Main!B2:I49,8,0)</f>
-        <v>Plant Supervisor</v>
-      </c>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="64"/>
-    </row>
-    <row r="9" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
-        <v>432</v>
-      </c>
-      <c r="B9" s="47">
-        <f>VLOOKUP(B4,Main!B2:M49,12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49" t="s">
-        <v>433</v>
-      </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="63" t="str">
-        <f>VLOOKUP(B4,Main!B2:J49,9,0)</f>
-        <v>emc.yib.plant@stsoman.com</v>
-      </c>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="64"/>
-    </row>
-    <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>434</v>
-      </c>
-      <c r="B10" s="47" t="str">
-        <f>VLOOKUP(B4,Main!B2:N49,13,0)</f>
-        <v>EliteDesk 800 G2 TWR</v>
-      </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="49" t="s">
-        <v>435</v>
-      </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="63">
-        <f>VLOOKUP(B4,Main!B2:K49,10,0)</f>
-        <v>95168064</v>
-      </c>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="64"/>
-    </row>
-    <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
-        <v>436</v>
-      </c>
-      <c r="B11" s="47" t="str">
-        <f>VLOOKUP(B4,Main!B2:O49,14,0)</f>
-        <v>CZC70285JL</v>
-      </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49" t="s">
-        <v>437</v>
-      </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="63" t="str">
-        <f>VLOOKUP(B4,Main!B2:Q49,16,0)</f>
-        <v>i5-6500</v>
-      </c>
-      <c r="L11" s="49"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="31" t="s">
-        <v>438</v>
-      </c>
-      <c r="O11" s="63">
-        <f>VLOOKUP(B4,Main!B2:U49,20,0)</f>
-        <v>64</v>
-      </c>
-      <c r="P11" s="64"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-    </row>
-    <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>439</v>
-      </c>
-      <c r="B12" s="47" t="str">
-        <f>VLOOKUP(B4,Main!B2:P49,15,0)</f>
-        <v>T1P48AW#ABV</v>
-      </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49" t="s">
-        <v>440</v>
-      </c>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70" t="s">
-        <v>441</v>
-      </c>
-      <c r="N12" s="70"/>
-      <c r="O12" s="63" t="str">
-        <f>VLOOKUP(B4,Main!B2:R49,17,0)</f>
-        <v>08 GB</v>
-      </c>
-      <c r="P12" s="64"/>
-    </row>
-    <row r="13" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>442</v>
-      </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49" t="s">
-        <v>443</v>
-      </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="51" t="str">
-        <f>VLOOKUP(B4,Main!B2:T49,19,0)</f>
-        <v>Windows 10 Professional</v>
-      </c>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52">
-        <f>VLOOKUP(B4,Main!B2:V49,21,0)</f>
-        <v>1607</v>
-      </c>
-      <c r="P13" s="53"/>
-    </row>
-    <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
-        <v>444</v>
-      </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="75" t="s">
-        <v>445</v>
-      </c>
-      <c r="I14" s="75"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="L14" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="33" t="s">
-        <v>446</v>
-      </c>
-      <c r="N14" s="31" t="s">
-        <v>447</v>
-      </c>
-      <c r="O14" s="51" t="s">
-        <v>448</v>
-      </c>
-      <c r="P14" s="53"/>
-    </row>
-    <row r="15" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="72"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="80"/>
-    </row>
-    <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>449</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="66" t="s">
-        <v>450</v>
-      </c>
-      <c r="I16" s="66"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="69"/>
-    </row>
-    <row r="17" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
-        <v>451</v>
-      </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="49" t="s">
-        <v>452</v>
-      </c>
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="64"/>
-    </row>
-    <row r="18" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
-        <v>453</v>
-      </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="49" t="s">
-        <v>454</v>
-      </c>
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="64"/>
-    </row>
-    <row r="19" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>455</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="49" t="s">
-        <v>456</v>
-      </c>
-      <c r="I19" s="49"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="64"/>
-    </row>
-    <row r="20" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
-        <v>457</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="49" t="s">
-        <v>458</v>
-      </c>
-      <c r="I20" s="49"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="64"/>
-    </row>
-    <row r="21" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
-        <v>459</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="49" t="s">
-        <v>460</v>
-      </c>
-      <c r="I21" s="49"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="64"/>
-    </row>
-    <row r="22" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
-        <v>461</v>
-      </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="83"/>
-      <c r="O22" s="83"/>
-      <c r="P22" s="86"/>
-    </row>
-    <row r="23" spans="1:16" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
-        <v>462</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-    </row>
-    <row r="24" spans="1:16" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="87" t="s">
-        <v>463</v>
-      </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="58" t="s">
-        <v>464</v>
-      </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="88" t="s">
-        <v>465</v>
-      </c>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="39"/>
-    </row>
-    <row r="25" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="90" t="s">
-        <v>466</v>
-      </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="49" t="s">
-        <v>467</v>
-      </c>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="91" t="s">
-        <v>468</v>
-      </c>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="41"/>
-    </row>
-    <row r="26" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="90" t="s">
-        <v>469</v>
-      </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="49" t="s">
-        <v>470</v>
-      </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="91" t="s">
-        <v>471</v>
-      </c>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="41"/>
-    </row>
-    <row r="27" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="90" t="s">
-        <v>472</v>
-      </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="49" t="s">
-        <v>473</v>
-      </c>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="91" t="s">
-        <v>474</v>
-      </c>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="41"/>
-    </row>
-    <row r="28" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="90" t="s">
-        <v>475</v>
-      </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="49" t="s">
-        <v>476</v>
-      </c>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="91" t="s">
-        <v>477</v>
-      </c>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="41"/>
-    </row>
-    <row r="29" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="90" t="s">
-        <v>478</v>
-      </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="49" t="s">
-        <v>479</v>
-      </c>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="41"/>
-    </row>
-    <row r="30" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="90" t="s">
-        <v>480</v>
-      </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="49" t="s">
-        <v>481</v>
-      </c>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="41"/>
-    </row>
-    <row r="31" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="90" t="s">
-        <v>482</v>
-      </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="49" t="s">
-        <v>483</v>
-      </c>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="41"/>
-    </row>
-    <row r="32" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="94" t="s">
-        <v>484</v>
-      </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="95" t="s">
-        <v>485</v>
-      </c>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="44"/>
-    </row>
-    <row r="33" spans="1:16" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="97"/>
-      <c r="B34" s="98"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="98"/>
-      <c r="J34" s="98"/>
-      <c r="K34" s="98"/>
-      <c r="L34" s="98"/>
-      <c r="M34" s="98"/>
-      <c r="N34" s="98"/>
-      <c r="O34" s="98"/>
-      <c r="P34" s="99"/>
-    </row>
-    <row r="35" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="100"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="101"/>
-      <c r="J35" s="101"/>
-      <c r="K35" s="101"/>
-      <c r="L35" s="101"/>
-      <c r="M35" s="101"/>
-      <c r="N35" s="101"/>
-      <c r="O35" s="101"/>
-      <c r="P35" s="102"/>
-    </row>
-    <row r="36" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="100"/>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="101"/>
-      <c r="K36" s="101"/>
-      <c r="L36" s="101"/>
-      <c r="M36" s="101"/>
-      <c r="N36" s="101"/>
-      <c r="O36" s="101"/>
-      <c r="P36" s="102"/>
-    </row>
-    <row r="37" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="100"/>
-      <c r="B37" s="101"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
-      <c r="K37" s="101"/>
-      <c r="L37" s="101"/>
-      <c r="M37" s="101"/>
-      <c r="N37" s="101"/>
-      <c r="O37" s="101"/>
-      <c r="P37" s="102"/>
-    </row>
-    <row r="38" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="100"/>
-      <c r="B38" s="101"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="101"/>
-      <c r="G38" s="101"/>
-      <c r="H38" s="101"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="101"/>
-      <c r="K38" s="101"/>
-      <c r="L38" s="101"/>
-      <c r="M38" s="101"/>
-      <c r="N38" s="101"/>
-      <c r="O38" s="101"/>
-      <c r="P38" s="102"/>
-    </row>
-    <row r="39" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="103"/>
-      <c r="B39" s="104"/>
-      <c r="C39" s="104"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="104"/>
-      <c r="J39" s="104"/>
-      <c r="K39" s="104"/>
-      <c r="L39" s="104"/>
-      <c r="M39" s="104"/>
-      <c r="N39" s="104"/>
-      <c r="O39" s="104"/>
-      <c r="P39" s="105"/>
-    </row>
-    <row r="40" spans="1:16" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="45" t="s">
-        <v>487</v>
-      </c>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="46" t="s">
-        <v>488</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="K32:O32"/>
-    <mergeCell ref="A34:P39"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="K30:O30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="K31:O31"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="K28:O28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="K29:O29"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="K26:O26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="K27:O27"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:G15"/>
-    <mergeCell ref="H14:J15"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:P4"/>
-  </mergeCells>
-  <pageMargins left="0.5" right="0.1" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.42578125" style="24" customWidth="1"/>
-    <col min="2" max="9" width="5.140625" style="24" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="24" customWidth="1"/>
-    <col min="11" max="15" width="5.140625" style="24" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" style="24" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="24" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="24"/>
-    <col min="19" max="19" width="1.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="1.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="24"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
-        <v>419</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-    </row>
-    <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
-        <v>420</v>
-      </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-    </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>421</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-    </row>
-    <row r="4" spans="1:24" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58" t="s">
-        <v>423</v>
-      </c>
-      <c r="I4" s="58"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="62"/>
-    </row>
-    <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>424</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="49" t="s">
-        <v>425</v>
-      </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="53"/>
-    </row>
-    <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>426</v>
-      </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="49" t="s">
-        <v>427</v>
-      </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="53"/>
-    </row>
-    <row r="7" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>428</v>
-      </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="49" t="s">
-        <v>429</v>
-      </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="53"/>
-    </row>
-    <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>430</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="49" t="s">
-        <v>431</v>
-      </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="53"/>
-    </row>
-    <row r="9" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
-        <v>432</v>
-      </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49" t="s">
-        <v>433</v>
-      </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="53"/>
-    </row>
-    <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>434</v>
-      </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="49" t="s">
-        <v>435</v>
-      </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="64"/>
-    </row>
-    <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
-        <v>436</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49" t="s">
-        <v>437</v>
-      </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="31" t="s">
-        <v>438</v>
-      </c>
-      <c r="O11" s="63"/>
-      <c r="P11" s="64"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-    </row>
-    <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>439</v>
-      </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49" t="s">
-        <v>440</v>
-      </c>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70" t="s">
-        <v>441</v>
-      </c>
-      <c r="N12" s="70"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="64"/>
-    </row>
-    <row r="13" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>442</v>
-      </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49" t="s">
-        <v>443</v>
-      </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="64"/>
-    </row>
-    <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
-        <v>444</v>
-      </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="75" t="s">
-        <v>445</v>
-      </c>
-      <c r="I14" s="75"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="L14" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="33" t="s">
-        <v>446</v>
-      </c>
-      <c r="N14" s="31" t="s">
-        <v>447</v>
-      </c>
-      <c r="O14" s="51" t="s">
-        <v>448</v>
-      </c>
-      <c r="P14" s="53"/>
-    </row>
-    <row r="15" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="72"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="80"/>
-    </row>
-    <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>449</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="66" t="s">
-        <v>450</v>
-      </c>
-      <c r="I16" s="66"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="69"/>
-    </row>
-    <row r="17" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
-        <v>451</v>
-      </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="49" t="s">
-        <v>452</v>
-      </c>
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="64"/>
-    </row>
-    <row r="18" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
-        <v>453</v>
-      </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="49" t="s">
-        <v>454</v>
-      </c>
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="64"/>
-    </row>
-    <row r="19" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>455</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="49" t="s">
-        <v>456</v>
-      </c>
-      <c r="I19" s="49"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="64"/>
-    </row>
-    <row r="20" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
-        <v>457</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="49" t="s">
-        <v>458</v>
-      </c>
-      <c r="I20" s="49"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="64"/>
-    </row>
-    <row r="21" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
-        <v>459</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="49" t="s">
-        <v>460</v>
-      </c>
-      <c r="I21" s="49"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="64"/>
-    </row>
-    <row r="22" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
-        <v>461</v>
-      </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="83"/>
-      <c r="O22" s="83"/>
-      <c r="P22" s="86"/>
-    </row>
-    <row r="23" spans="1:16" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
-        <v>462</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-    </row>
-    <row r="24" spans="1:16" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="87" t="s">
-        <v>463</v>
-      </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="58" t="s">
-        <v>464</v>
-      </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="88" t="s">
-        <v>465</v>
-      </c>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="39"/>
-    </row>
-    <row r="25" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="90" t="s">
-        <v>466</v>
-      </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="49" t="s">
-        <v>467</v>
-      </c>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="91" t="s">
-        <v>468</v>
-      </c>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="41"/>
-    </row>
-    <row r="26" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="90" t="s">
-        <v>469</v>
-      </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="49" t="s">
-        <v>470</v>
-      </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="91" t="s">
-        <v>471</v>
-      </c>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="41"/>
-    </row>
-    <row r="27" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="90" t="s">
-        <v>472</v>
-      </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="49" t="s">
-        <v>473</v>
-      </c>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="91" t="s">
-        <v>474</v>
-      </c>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="41"/>
-    </row>
-    <row r="28" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="90" t="s">
-        <v>475</v>
-      </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="49" t="s">
-        <v>476</v>
-      </c>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="91" t="s">
-        <v>477</v>
-      </c>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="41"/>
-    </row>
-    <row r="29" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="90" t="s">
-        <v>478</v>
-      </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="49" t="s">
-        <v>479</v>
-      </c>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="41"/>
-    </row>
-    <row r="30" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="90" t="s">
-        <v>480</v>
-      </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="49" t="s">
-        <v>481</v>
-      </c>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="41"/>
-    </row>
-    <row r="31" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="90" t="s">
-        <v>482</v>
-      </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="49" t="s">
-        <v>483</v>
-      </c>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="41"/>
-    </row>
-    <row r="32" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="94" t="s">
-        <v>484</v>
-      </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="95" t="s">
-        <v>485</v>
-      </c>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="44"/>
-    </row>
-    <row r="33" spans="1:16" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="97"/>
-      <c r="B34" s="98"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="98"/>
-      <c r="J34" s="98"/>
-      <c r="K34" s="98"/>
-      <c r="L34" s="98"/>
-      <c r="M34" s="98"/>
-      <c r="N34" s="98"/>
-      <c r="O34" s="98"/>
-      <c r="P34" s="99"/>
-    </row>
-    <row r="35" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="100"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="101"/>
-      <c r="J35" s="101"/>
-      <c r="K35" s="101"/>
-      <c r="L35" s="101"/>
-      <c r="M35" s="101"/>
-      <c r="N35" s="101"/>
-      <c r="O35" s="101"/>
-      <c r="P35" s="102"/>
-    </row>
-    <row r="36" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="100"/>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="101"/>
-      <c r="K36" s="101"/>
-      <c r="L36" s="101"/>
-      <c r="M36" s="101"/>
-      <c r="N36" s="101"/>
-      <c r="O36" s="101"/>
-      <c r="P36" s="102"/>
-    </row>
-    <row r="37" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="100"/>
-      <c r="B37" s="101"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
-      <c r="K37" s="101"/>
-      <c r="L37" s="101"/>
-      <c r="M37" s="101"/>
-      <c r="N37" s="101"/>
-      <c r="O37" s="101"/>
-      <c r="P37" s="102"/>
-    </row>
-    <row r="38" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="100"/>
-      <c r="B38" s="101"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="101"/>
-      <c r="G38" s="101"/>
-      <c r="H38" s="101"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="101"/>
-      <c r="K38" s="101"/>
-      <c r="L38" s="101"/>
-      <c r="M38" s="101"/>
-      <c r="N38" s="101"/>
-      <c r="O38" s="101"/>
-      <c r="P38" s="102"/>
-    </row>
-    <row r="39" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="103"/>
-      <c r="B39" s="104"/>
-      <c r="C39" s="104"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="104"/>
-      <c r="J39" s="104"/>
-      <c r="K39" s="104"/>
-      <c r="L39" s="104"/>
-      <c r="M39" s="104"/>
-      <c r="N39" s="104"/>
-      <c r="O39" s="104"/>
-      <c r="P39" s="105"/>
-    </row>
-    <row r="40" spans="1:16" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="45" t="s">
-        <v>487</v>
-      </c>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="46" t="s">
-        <v>488</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="89">
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="K32:O32"/>
-    <mergeCell ref="A34:P39"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="K30:O30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="K31:O31"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="K28:O28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="K29:O29"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="K26:O26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="K27:O27"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:G15"/>
-    <mergeCell ref="H14:J15"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:P5"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:P4"/>
-  </mergeCells>
-  <pageMargins left="0.5" right="0.1" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>